--- a/Meilensteinplan/Meilensteinplan.xlsx
+++ b/Meilensteinplan/Meilensteinplan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramo\Documents\GitHub\Scharfschiessen\Meilensteinplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Documents\GitHub\Scharfschiessen\Meilensteinplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -102,13 +102,49 @@
   </si>
   <si>
     <t>KW44</t>
+  </si>
+  <si>
+    <t>Samstag</t>
+  </si>
+  <si>
+    <t>Sonntag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kickoff-Meeting </t>
+  </si>
+  <si>
+    <t>Ideeneskizze, Programmstruktur, Meilensteinplan (this)</t>
+  </si>
+  <si>
+    <t>Termine</t>
+  </si>
+  <si>
+    <t>Konzeptpapier</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>Fertigstellung der Game-Logik</t>
+  </si>
+  <si>
+    <t>Abschluss Preproduction</t>
+  </si>
+  <si>
+    <t>Geplante Inhalte</t>
+  </si>
+  <si>
+    <t>Methoden implementieren</t>
+  </si>
+  <si>
+    <t>Klassen Struktur anlegen, DB Connector recherchieren, Fusee Tutorial (alle)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -118,27 +154,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +205,18 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,39 +230,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,9 +361,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -330,7 +401,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -402,7 +473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -552,24 +623,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1"/>
-    <col min="2" max="2" width="14.85546875" style="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="19.5703125" style="1"/>
-    <col min="5" max="5" width="48.42578125" style="1"/>
-    <col min="6" max="6" width="55.140625"/>
-    <col min="7" max="1025" width="10.7109375"/>
+    <col min="1" max="1" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="19.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -579,758 +651,1331 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>41519</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>41764</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="15">
         <f>WEEKNUM(A3,21)</f>
-        <v>36</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>41520</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>41765</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>41521</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C59" si="0">WEEKNUM(A4,21)</f>
+        <v>19</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>41766</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>41522</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>41767</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>41523</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>41768</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>41769</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>41770</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>41526</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>41771</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>41772</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" ref="C11:C23" si="1">WEEKNUM(A11,21)</f>
+        <v>20</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>41773</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>41774</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>41775</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>41776</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>41777</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>41778</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>41779</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>41780</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>41781</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>41782</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>41783</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>41784</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>41785</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" ref="C24:C59" si="2">WEEKNUM(A24,21)</f>
+        <v>22</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>41786</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>41787</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>41788</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="15">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>41789</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>41790</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>41791</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>41792</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>41793</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>41794</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>41795</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>41796</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>41797</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>41798</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>41799</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>41800</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>41801</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>41802</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41803</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>41804</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>41805</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="8">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>41806</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>41807</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>41808</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>41809</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>41810</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>41811</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="8">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>41812</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="8">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>41813</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>41814</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>41815</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>41816</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>41817</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="6">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>41818</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="8">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>41819</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="8">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="14">
+        <v>41820</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="15">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-      <c r="B123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="5"/>
+      <c r="B122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="5"/>
+      <c r="B123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
-      <c r="D124"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="D125" s="12"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="D126" s="12"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="D127" s="12"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="D129" s="12"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="D130" s="12"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="D131" s="12"/>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="6"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="D132" s="12"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="6"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="D133" s="12"/>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="6"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="D134" s="12"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="D135" s="12"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="D136" s="12"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="6"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="D137" s="12"/>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="6"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="D138" s="12"/>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="6"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="D139" s="12"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="D140" s="12"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="D141" s="12"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="D142" s="12"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="D143" s="12"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="D144" s="12"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="D145" s="12"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="D146" s="12"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="D147" s="12"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="D148" s="12"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="D149" s="12"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="D150" s="12"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="D151" s="12"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="D152" s="12"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="D153" s="12"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="D154" s="12"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="5"/>
       <c r="D155" s="12"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="5"/>
       <c r="D156" s="12"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="D157" s="12"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="D158" s="12"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="D159" s="12"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="D160" s="12"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="D161" s="12"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="5"/>
       <c r="D162" s="12"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="5"/>
       <c r="D163" s="12"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="D164" s="12"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="D165" s="12"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="D166" s="12"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="D167" s="12"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="D168" s="12"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="5"/>
       <c r="D169" s="12"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="5"/>
       <c r="D170" s="12"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="D171" s="12"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="D172" s="12"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="D173" s="12"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="D174" s="12"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="D175" s="12"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D176" s="12"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D177" s="12"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="D178" s="12"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="D179" s="12"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="D180" s="12"/>
-      <c r="E180" s="7"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="D181" s="12"/>
-      <c r="E181" s="7"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
-      <c r="B182" s="9"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="13"/>
+      <c r="B182" s="11"/>
       <c r="D182" s="12"/>
-      <c r="E182" s="9"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1346,34 +1991,34 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375"/>
+    <col min="1" max="1" width="10.6640625"/>
     <col min="2" max="6" width="32"/>
-    <col min="7" max="1025" width="10.7109375"/>
+    <col min="7" max="1025" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1390,7 +2035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1401,23 +2046,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1433,9 +2078,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="10.7109375"/>
+    <col min="1" max="1025" width="10.6640625"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
